--- a/Precipitation/hourly/hourly_stations_new.xlsx
+++ b/Precipitation/hourly/hourly_stations_new.xlsx
@@ -437,13 +437,13 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
